--- a/config_12.08/fish_use_config.xlsx
+++ b/config_12.08/fish_use_config.xlsx
@@ -143,7 +143,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +206,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -234,6 +240,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2595,11 +2610,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4913,8 +4928,88 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="13">
+        <v>167</v>
+      </c>
+      <c r="B168" s="12">
+        <v>6</v>
+      </c>
+      <c r="C168" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="13">
+        <v>168</v>
+      </c>
+      <c r="B169" s="12">
+        <v>7</v>
+      </c>
+      <c r="C169" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="13">
+        <v>169</v>
+      </c>
+      <c r="B170" s="12">
+        <v>8</v>
+      </c>
+      <c r="C170" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="13">
+        <v>170</v>
+      </c>
+      <c r="B171" s="12">
+        <v>9</v>
+      </c>
+      <c r="C171" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="13">
+        <v>171</v>
+      </c>
+      <c r="B172" s="12">
+        <v>10</v>
+      </c>
+      <c r="C172" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="13">
+        <v>172</v>
+      </c>
+      <c r="B173" s="12">
+        <v>34</v>
+      </c>
+      <c r="C173" s="14"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="13">
+        <v>173</v>
+      </c>
+      <c r="B174" s="12">
+        <v>34</v>
+      </c>
+      <c r="C174" s="14"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="13">
+        <v>174</v>
+      </c>
+      <c r="B175" s="12">
+        <v>34</v>
+      </c>
+      <c r="C175" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.08/fish_use_config.xlsx
+++ b/config_12.08/fish_use_config.xlsx
@@ -2614,7 +2614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I163" sqref="I163"/>
+      <selection pane="bottomLeft" activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4834,83 +4834,86 @@
       </c>
     </row>
     <row r="158" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8">
+      <c r="A158" s="13">
         <v>157</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="12">
         <v>6</v>
       </c>
-      <c r="C158" s="10">
+      <c r="C158" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="8">
+      <c r="A159" s="13">
         <v>158</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="12">
         <v>7</v>
       </c>
-      <c r="C159" s="10">
+      <c r="C159" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8">
+      <c r="A160" s="13">
         <v>159</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="12">
         <v>8</v>
       </c>
-      <c r="C160" s="10">
+      <c r="C160" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="8">
+      <c r="A161" s="13">
         <v>160</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="12">
         <v>9</v>
       </c>
-      <c r="C161" s="10">
+      <c r="C161" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8">
+      <c r="A162" s="13">
         <v>161</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="12">
         <v>10</v>
       </c>
-      <c r="C162" s="10">
+      <c r="C162" s="14">
         <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8">
+      <c r="A163" s="13">
         <v>162</v>
       </c>
-      <c r="B163" s="9">
-        <v>32</v>
-      </c>
+      <c r="B163" s="12">
+        <v>34</v>
+      </c>
+      <c r="C163" s="14"/>
     </row>
     <row r="164" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="8">
+      <c r="A164" s="13">
         <v>163</v>
       </c>
-      <c r="B164" s="9">
-        <v>32</v>
-      </c>
+      <c r="B164" s="12">
+        <v>34</v>
+      </c>
+      <c r="C164" s="14"/>
     </row>
     <row r="165" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="8">
+      <c r="A165" s="13">
         <v>164</v>
       </c>
-      <c r="B165" s="9">
-        <v>32</v>
-      </c>
+      <c r="B165" s="12">
+        <v>34</v>
+      </c>
+      <c r="C165" s="14"/>
     </row>
     <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
@@ -4929,86 +4932,42 @@
       </c>
     </row>
     <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13">
-        <v>167</v>
-      </c>
-      <c r="B168" s="12">
-        <v>6</v>
-      </c>
-      <c r="C168" s="14">
-        <v>9</v>
-      </c>
+      <c r="A168" s="8"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="13">
-        <v>168</v>
-      </c>
-      <c r="B169" s="12">
-        <v>7</v>
-      </c>
-      <c r="C169" s="14">
-        <v>9</v>
-      </c>
+      <c r="A169" s="8"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="13">
-        <v>169</v>
-      </c>
-      <c r="B170" s="12">
-        <v>8</v>
-      </c>
-      <c r="C170" s="14">
-        <v>9</v>
-      </c>
+      <c r="A170" s="8"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="10"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="13">
-        <v>170</v>
-      </c>
-      <c r="B171" s="12">
-        <v>9</v>
-      </c>
-      <c r="C171" s="14">
-        <v>9</v>
-      </c>
+      <c r="A171" s="8"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="10"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="13">
-        <v>171</v>
-      </c>
-      <c r="B172" s="12">
-        <v>10</v>
-      </c>
-      <c r="C172" s="14">
-        <v>9</v>
-      </c>
+      <c r="A172" s="8"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="10"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="13">
-        <v>172</v>
-      </c>
-      <c r="B173" s="12">
-        <v>34</v>
-      </c>
-      <c r="C173" s="14"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="10"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="13">
-        <v>173</v>
-      </c>
-      <c r="B174" s="12">
-        <v>34</v>
-      </c>
-      <c r="C174" s="14"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="10"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="13">
-        <v>174</v>
-      </c>
-      <c r="B175" s="12">
-        <v>34</v>
-      </c>
-      <c r="C175" s="14"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_12.08/fish_use_config.xlsx
+++ b/config_12.08/fish_use_config.xlsx
@@ -206,7 +206,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -231,9 +231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2614,7 +2611,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H165" sqref="H165"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4833,141 +4830,185 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="13">
+    <row r="158" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="12">
         <v>157</v>
       </c>
-      <c r="B158" s="12">
+      <c r="B158" s="11">
         <v>6</v>
       </c>
-      <c r="C158" s="14">
+      <c r="C158" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="13">
+    <row r="159" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="12">
         <v>158</v>
       </c>
-      <c r="B159" s="12">
+      <c r="B159" s="11">
         <v>7</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C159" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="13">
+    <row r="160" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="12">
         <v>159</v>
       </c>
-      <c r="B160" s="12">
+      <c r="B160" s="11">
         <v>8</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="13">
+    <row r="161" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="12">
         <v>160</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="11">
         <v>9</v>
       </c>
-      <c r="C161" s="14">
+      <c r="C161" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="13">
+    <row r="162" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="12">
         <v>161</v>
       </c>
-      <c r="B162" s="12">
+      <c r="B162" s="11">
         <v>10</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="13">
+    <row r="163" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="12">
         <v>162</v>
       </c>
-      <c r="B163" s="12">
-        <v>34</v>
-      </c>
-      <c r="C163" s="14"/>
-    </row>
-    <row r="164" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="13">
+      <c r="B163" s="11">
+        <v>32</v>
+      </c>
+      <c r="C163" s="13"/>
+    </row>
+    <row r="164" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="12">
         <v>163</v>
       </c>
-      <c r="B164" s="12">
-        <v>34</v>
-      </c>
-      <c r="C164" s="14"/>
-    </row>
-    <row r="165" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="13">
+      <c r="B164" s="11">
+        <v>32</v>
+      </c>
+      <c r="C164" s="13"/>
+    </row>
+    <row r="165" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="12">
         <v>164</v>
       </c>
-      <c r="B165" s="12">
-        <v>34</v>
-      </c>
-      <c r="C165" s="14"/>
-    </row>
-    <row r="166" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="11">
+        <v>32</v>
+      </c>
+      <c r="C165" s="13"/>
+    </row>
+    <row r="166" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>165</v>
       </c>
-      <c r="B166" s="11">
+      <c r="B166" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>166</v>
       </c>
-      <c r="B167" s="11">
+      <c r="B167" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="8"/>
-      <c r="B168" s="9"/>
-    </row>
-    <row r="169" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="8"/>
-      <c r="B169" s="9"/>
+    <row r="168" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="12">
+        <v>167</v>
+      </c>
+      <c r="B168" s="11">
+        <v>6</v>
+      </c>
+      <c r="C168" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="12">
+        <v>168</v>
+      </c>
+      <c r="B169" s="11">
+        <v>7</v>
+      </c>
+      <c r="C169" s="13">
+        <v>9</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="8"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="10"/>
+      <c r="A170" s="12">
+        <v>169</v>
+      </c>
+      <c r="B170" s="11">
+        <v>8</v>
+      </c>
+      <c r="C170" s="13">
+        <v>9</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="8"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="10"/>
+      <c r="A171" s="12">
+        <v>170</v>
+      </c>
+      <c r="B171" s="11">
+        <v>9</v>
+      </c>
+      <c r="C171" s="13">
+        <v>9</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="8"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="10"/>
+      <c r="A172" s="12">
+        <v>171</v>
+      </c>
+      <c r="B172" s="11">
+        <v>10</v>
+      </c>
+      <c r="C172" s="13">
+        <v>9</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="8"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="10"/>
+      <c r="A173" s="12">
+        <v>172</v>
+      </c>
+      <c r="B173" s="11">
+        <v>34</v>
+      </c>
+      <c r="C173" s="13"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="8"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="10"/>
+      <c r="A174" s="12">
+        <v>173</v>
+      </c>
+      <c r="B174" s="11">
+        <v>34</v>
+      </c>
+      <c r="C174" s="13"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="8"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="10"/>
+      <c r="A175" s="12">
+        <v>174</v>
+      </c>
+      <c r="B175" s="11">
+        <v>34</v>
+      </c>
+      <c r="C175" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
